--- a/API/API 설계 서정현.xlsx
+++ b/API/API 설계 서정현.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>구분</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,88 +41,100 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Kmarket/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>/Kmarket/index.do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>메인화면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Kmarket/index.do</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍길동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Kmarket/member/…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 로그인 화면</t>
+    <t>서정현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>상품</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Kmarket/product/…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 목록 화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Kmarket/cs/…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고객센터 메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Kmarket/admin/…</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자 메인화면</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/product/list.do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/product/view.do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서정현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품목록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세보기 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/product/review.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/product/deleteCart.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/product/cart.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 담긴 상품 DB 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 상품 리뷰 게시글 DB 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 DB 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/product/order.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품주문 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상품 DB 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Kmarket/product/complete.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문완료 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -172,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,8 +192,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,18 +487,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -496,108 +520,158 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>9</v>
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API/API 설계 서정현.xlsx
+++ b/API/API 설계 서정현.xlsx
@@ -195,11 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -487,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -520,7 +520,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -537,7 +537,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
@@ -552,14 +552,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -567,12 +567,12 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="6"/>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -580,7 +580,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
@@ -595,7 +595,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
@@ -610,7 +610,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
@@ -625,8 +625,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -640,8 +640,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
@@ -653,8 +653,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="7"/>
+      <c r="B11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -667,11 +667,78 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
